--- a/server/FSApp/doc/功能开放/openLevelLimit.xlsx
+++ b/server/FSApp/doc/功能开放/openLevelLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="0" windowWidth="25980" windowHeight="19520"/>
+    <workbookView xWindow="3460" yWindow="20" windowWidth="25980" windowHeight="19520"/>
   </bookViews>
   <sheets>
     <sheet name="openLevelLimit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t>key</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>TRIAL_TYPE_CELESTIAL</t>
+  </si>
+  <si>
+    <t>TRAIL_VALLEY</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +953,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1129,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1148,6 +1163,8 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
@@ -1159,6 +1176,8 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="9" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1449,7 +1468,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2141,7 +2160,7 @@
       </c>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="15">
         <v>30</v>
       </c>
@@ -2161,7 +2180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="15">
         <v>31</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="15">
         <v>32</v>
       </c>
@@ -2201,7 +2220,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="15">
         <v>33</v>
       </c>
@@ -2219,7 +2238,7 @@
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="15">
         <v>34</v>
       </c>
@@ -2237,7 +2256,7 @@
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="15">
         <v>35</v>
       </c>
@@ -2255,7 +2274,7 @@
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="15">
         <v>36</v>
       </c>
@@ -2273,7 +2292,7 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="15">
         <v>37</v>
       </c>
@@ -2291,7 +2310,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="15">
         <v>38</v>
       </c>
@@ -2309,7 +2328,7 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="15">
         <v>39</v>
       </c>
@@ -2330,7 +2349,7 @@
         <v>110101</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="15">
         <v>40</v>
       </c>
@@ -2350,8 +2369,11 @@
       <c r="H43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="15">
         <v>41</v>
       </c>
@@ -2369,7 +2391,7 @@
       </c>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" s="15">
         <v>42</v>
       </c>
@@ -2389,7 +2411,7 @@
         <v>110102</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="15">
         <v>43</v>
       </c>
@@ -2409,7 +2431,7 @@
         <v>110202</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" s="15">
         <v>44</v>
       </c>
@@ -2426,7 +2448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" s="15">
         <v>45</v>
       </c>

--- a/server/FSApp/doc/功能开放/openLevelLimit.xlsx
+++ b/server/FSApp/doc/功能开放/openLevelLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="20" windowWidth="25980" windowHeight="19520"/>
+    <workbookView xWindow="5680" yWindow="0" windowWidth="24360" windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="openLevelLimit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
   <si>
     <t>key</t>
   </si>
@@ -342,18 +342,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>穿装备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>主角可升星等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>升技能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>副本扫荡开放</t>
   </si>
   <si>
@@ -379,10 +371,6 @@
   </si>
   <si>
     <t>更变职业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>点金手</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -531,6 +519,128 @@
   </si>
   <si>
     <t>TRAIL_VALLEY</t>
+  </si>
+  <si>
+    <t>MSG_TOWER</t>
+  </si>
+  <si>
+    <t>TOWER_PANEL_INFO</t>
+  </si>
+  <si>
+    <t>MSG_Inlay</t>
+  </si>
+  <si>
+    <t>MSG_MAGIC</t>
+  </si>
+  <si>
+    <t>Magic_FORGE</t>
+  </si>
+  <si>
+    <t>功能不存在</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_ROLE</t>
+  </si>
+  <si>
+    <t>CHANGE_ROLE</t>
+  </si>
+  <si>
+    <t>MSG_MainService</t>
+  </si>
+  <si>
+    <t>BUY_COIN</t>
+  </si>
+  <si>
+    <t>MSG_DAILY_ACTIVITY</t>
+  </si>
+  <si>
+    <t>MSG_SIGN</t>
+  </si>
+  <si>
+    <t>MSG_MAGIC_SECRET</t>
+  </si>
+  <si>
+    <t>MSG_Worship</t>
+  </si>
+  <si>
+    <t>WORSHIP</t>
+  </si>
+  <si>
+    <t>MSG_TASK</t>
+  </si>
+  <si>
+    <t>MSG_GROUP_PERSONAL</t>
+  </si>
+  <si>
+    <t>GROUP_RECOMMENT_TYPE</t>
+  </si>
+  <si>
+    <t>CREATE_GROUP_TYPE</t>
+  </si>
+  <si>
+    <t>APPLY_JOIN_GROUP_TYPE</t>
+  </si>
+  <si>
+    <t>MSG_SKILL</t>
+  </si>
+  <si>
+    <t>Skill_Upgrade</t>
+  </si>
+  <si>
+    <t>MSG_GROUP_SECRET</t>
+  </si>
+  <si>
+    <t>MSG_STORE</t>
+  </si>
+  <si>
+    <t>MSG_FASHION</t>
+  </si>
+  <si>
+    <t>EVOLUTION_HERO</t>
+  </si>
+  <si>
+    <t>MSG_CopyService</t>
+  </si>
+  <si>
+    <t>SWEEP_LEVEL_DIAMOND,SWEEP_LEVEL_TICKET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_EXP,USE_EXP_MAX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_BATTLE_TOWER</t>
+  </si>
+  <si>
+    <t>暂不实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_TAOIST</t>
+  </si>
+  <si>
+    <t>Open_main_view</t>
+  </si>
+  <si>
+    <t>MSG_FIX_EQUIP</t>
+  </si>
+  <si>
+    <t>Norm_star_up</t>
+  </si>
+  <si>
+    <t>Exp_star_up</t>
+  </si>
+  <si>
+    <t>MSG_TEAM_BATTLE</t>
+  </si>
+  <si>
+    <t>客户端控制</t>
+  </si>
+  <si>
+    <t>客户端控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -770,12 +880,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -783,6 +887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +1013,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,8 +1143,188 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,35 +1406,29 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="103">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1165,6 +1449,36 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
@@ -1178,6 +1492,36 @@
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="9" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1457,7 +1801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1467,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1478,7 +1822,7 @@
     <col min="3" max="3" width="7.83203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.83203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.33203125" style="15" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
@@ -1504,13 +1848,13 @@
         <v>84</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1533,13 +1877,13 @@
         <v>85</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1562,13 +1906,13 @@
         <v>86</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1591,20 +1935,20 @@
         <v>87</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="I4" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13">
@@ -1616,16 +1960,18 @@
       <c r="E5" s="14">
         <v>100</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="13">
@@ -1637,14 +1983,16 @@
       <c r="E6" s="14">
         <v>100</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>93</v>
+      <c r="B7" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="13">
         <v>3</v>
@@ -1655,17 +2003,19 @@
       <c r="E7" s="14">
         <v>100</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>96</v>
+      <c r="B8" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="13">
         <v>4</v>
@@ -1676,16 +2026,18 @@
       <c r="E8" s="14">
         <v>100</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13">
@@ -1699,7 +2051,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1718,7 +2070,9 @@
       <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="16" t="s">
@@ -1730,7 +2084,7 @@
       <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <v>21</v>
       </c>
       <c r="E11" s="13">
@@ -1741,10 +2095,10 @@
         <v>110305</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1764,11 +2118,14 @@
         <v>100</v>
       </c>
       <c r="F12" s="14"/>
+      <c r="G12" s="15">
+        <v>110305</v>
+      </c>
       <c r="H12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1788,6 +2145,15 @@
         <v>100</v>
       </c>
       <c r="F13" s="21"/>
+      <c r="G13" s="14">
+        <v>110305</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="16" t="s">
@@ -1805,7 +2171,9 @@
       <c r="E14" s="13">
         <v>100</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="16" t="s">
@@ -1823,7 +2191,9 @@
       <c r="E15" s="13">
         <v>100</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="16" t="s">
@@ -1842,8 +2212,14 @@
         <v>100</v>
       </c>
       <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -1859,14 +2235,18 @@
       <c r="E17" s="13">
         <v>100</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>98</v>
+      <c r="B18" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="13">
         <v>14</v>
@@ -1878,31 +2258,41 @@
         <v>100</v>
       </c>
       <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="13">
         <v>15</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="28">
         <v>16</v>
       </c>
       <c r="E19" s="13">
         <v>100</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="14">
         <v>110303</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
@@ -1912,7 +2302,7 @@
       <c r="C20" s="13">
         <v>17</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="28">
         <v>19</v>
       </c>
       <c r="E20" s="13">
@@ -1923,14 +2313,14 @@
         <v>110304</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="13">
@@ -1942,13 +2332,15 @@
       <c r="E21" s="13">
         <v>100</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F21" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="13">
@@ -1960,19 +2352,21 @@
       <c r="E22" s="13">
         <v>100</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="13">
         <v>20</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="28">
         <v>16</v>
       </c>
       <c r="E23" s="13">
@@ -1982,18 +2376,21 @@
       <c r="G23" s="14">
         <v>110302</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="13">
         <v>21</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="28">
         <v>14</v>
       </c>
       <c r="E24" s="13">
@@ -2004,10 +2401,10 @@
         <v>110203</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
         <v>47</v>
       </c>
@@ -2024,18 +2421,21 @@
         <v>100</v>
       </c>
       <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="13">
         <v>23</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="28">
         <v>23</v>
       </c>
       <c r="E26" s="13">
@@ -2045,8 +2445,11 @@
       <c r="G26" s="14">
         <v>110306</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
@@ -2063,8 +2466,14 @@
         <v>100</v>
       </c>
       <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="16" t="s">
         <v>52</v>
       </c>
@@ -2074,7 +2483,7 @@
       <c r="C28" s="13">
         <v>25</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="28">
         <v>45</v>
       </c>
       <c r="E28" s="13">
@@ -2085,10 +2494,10 @@
         <v>110401</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="24" t="s">
         <v>54</v>
       </c>
@@ -2105,8 +2514,11 @@
         <v>100</v>
       </c>
       <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="16" t="s">
         <v>68</v>
       </c>
@@ -2123,8 +2535,14 @@
         <v>100</v>
       </c>
       <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="24" t="s">
         <v>69</v>
       </c>
@@ -2141,8 +2559,14 @@
         <v>100</v>
       </c>
       <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="16" t="s">
         <v>70</v>
       </c>
@@ -2159,6 +2583,12 @@
         <v>100</v>
       </c>
       <c r="F32" s="14"/>
+      <c r="H32" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="15">
@@ -2176,15 +2606,19 @@
       <c r="E33" s="13">
         <v>100</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>90</v>
+      <c r="F33" s="21"/>
+      <c r="H33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="13">
@@ -2196,16 +2630,16 @@
       <c r="E34" s="13">
         <v>100</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>88</v>
+      <c r="F34" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>94</v>
+      <c r="B35" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="13">
         <v>32</v>
@@ -2216,8 +2650,8 @@
       <c r="E35" s="13">
         <v>100</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>88</v>
+      <c r="F35" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2225,7 +2659,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="13">
         <v>33</v>
@@ -2237,12 +2671,15 @@
         <v>100</v>
       </c>
       <c r="F36" s="13"/>
+      <c r="H36" s="32" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="13">
@@ -2254,14 +2691,16 @@
       <c r="E37" s="13">
         <v>100</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="15">
         <v>35</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="13">
         <v>35</v>
@@ -2273,6 +2712,9 @@
         <v>100</v>
       </c>
       <c r="F38" s="13"/>
+      <c r="H38" s="32" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="15">
@@ -2291,6 +2733,9 @@
         <v>100</v>
       </c>
       <c r="F39" s="13"/>
+      <c r="H39" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="15">
@@ -2308,7 +2753,9 @@
       <c r="E40" s="13">
         <v>100</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="33" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="15">
@@ -2326,7 +2773,9 @@
       <c r="E41" s="13">
         <v>100</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="33" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15">
@@ -2338,7 +2787,7 @@
       <c r="C42" s="13">
         <v>38</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="28">
         <v>5</v>
       </c>
       <c r="E42" s="13">
@@ -2366,18 +2815,21 @@
         <v>100</v>
       </c>
       <c r="F43" s="21"/>
+      <c r="G43" s="15">
+        <v>110305</v>
+      </c>
       <c r="H43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="15">
         <v>41</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="13">
@@ -2390,18 +2842,21 @@
         <v>100</v>
       </c>
       <c r="F44" s="21"/>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="15">
         <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="15">
         <v>42</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="28">
         <v>7</v>
       </c>
       <c r="E45" s="21">
@@ -2409,6 +2864,12 @@
       </c>
       <c r="G45" s="14">
         <v>110102</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2416,12 +2877,12 @@
         <v>43</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="13">
         <v>43</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="28">
         <v>11</v>
       </c>
       <c r="E46" s="21">
@@ -2429,6 +2890,12 @@
       </c>
       <c r="G46" s="15">
         <v>110202</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2436,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="15">
         <v>44</v>
@@ -2446,14 +2913,20 @@
       </c>
       <c r="E47" s="21">
         <v>100</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="15">
         <v>45</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>97</v>
+      <c r="B48" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="13">
         <v>45</v>
@@ -2464,33 +2937,39 @@
       <c r="E48" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="F48" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="15">
         <v>46</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="15">
         <v>46</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="28">
         <v>15</v>
       </c>
       <c r="E49" s="21">
         <v>100</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G49" s="15">
         <v>110301</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" s="15">
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C50" s="15">
         <v>47</v>
@@ -2501,13 +2980,16 @@
       <c r="E50" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="F50" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="15">
         <v>48</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51" s="15">
         <v>48</v>
@@ -2518,13 +3000,16 @@
       <c r="E51" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="15">
         <v>49</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>103</v>
+      <c r="B52" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="C52" s="13">
         <v>49</v>
@@ -2535,33 +3020,39 @@
       <c r="E52" s="25">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="F52" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="15">
         <v>50</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" s="13">
         <v>50</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="28">
         <v>8</v>
       </c>
       <c r="E53" s="26">
         <v>100</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="G53" s="15">
         <v>110201</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" s="15">
         <v>51</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C54" s="13">
         <v>51</v>
@@ -2572,13 +3063,16 @@
       <c r="E54" s="26">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="F54" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="15">
         <v>52</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>106</v>
+      <c r="B55" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C55" s="13">
         <v>52</v>
@@ -2589,13 +3083,16 @@
       <c r="E55" s="26">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="15">
         <v>53</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>107</v>
+      <c r="B56" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="C56" s="13">
         <v>53</v>
@@ -2606,13 +3103,19 @@
       <c r="E56" s="26">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="15">
         <v>54</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C57" s="13">
         <v>54</v>
@@ -2623,13 +3126,19 @@
       <c r="E57" s="26">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="15">
         <v>55</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C58" s="15">
         <v>55</v>
@@ -2640,13 +3149,16 @@
       <c r="E58" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="F58" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="15">
         <v>56</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="13">
         <v>56</v>
@@ -2657,39 +3169,54 @@
       <c r="E59" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="15">
         <v>57</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>113</v>
+      <c r="B60" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C60" s="15">
         <v>57</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="27">
         <v>28</v>
       </c>
       <c r="E60" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="15">
         <v>58</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" s="13">
         <v>58</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="27">
         <v>36</v>
       </c>
       <c r="E61" s="13">
         <v>100</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/server/FSApp/doc/功能开放/openLevelLimit.xlsx
+++ b/server/FSApp/doc/功能开放/openLevelLimit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
   <si>
     <t>key</t>
   </si>
@@ -1013,7 +1013,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1063,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,7 +1446,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="109">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1479,6 +1497,9 @@
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
@@ -1522,6 +1543,9 @@
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="9" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1801,7 +1825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1811,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2050,6 +2074,9 @@
         <v>100</v>
       </c>
       <c r="F9" s="13"/>
+      <c r="G9" s="15">
+        <v>110301</v>
+      </c>
       <c r="H9" t="s">
         <v>121</v>
       </c>
@@ -2212,6 +2239,9 @@
         <v>100</v>
       </c>
       <c r="F16" s="23"/>
+      <c r="G16" s="15">
+        <v>110301</v>
+      </c>
       <c r="H16" s="32" t="s">
         <v>137</v>
       </c>
@@ -2258,6 +2288,9 @@
         <v>100</v>
       </c>
       <c r="F18" s="14"/>
+      <c r="G18" s="15">
+        <v>110301</v>
+      </c>
       <c r="H18" s="32" t="s">
         <v>140</v>
       </c>
@@ -2421,6 +2454,9 @@
         <v>100</v>
       </c>
       <c r="F25" s="14"/>
+      <c r="G25" s="15">
+        <v>110301</v>
+      </c>
       <c r="H25" s="32" t="s">
         <v>145</v>
       </c>
@@ -2466,6 +2502,9 @@
         <v>100</v>
       </c>
       <c r="F27" s="14"/>
+      <c r="G27" s="15">
+        <v>110301</v>
+      </c>
       <c r="H27" s="32" t="s">
         <v>147</v>
       </c>
@@ -2514,6 +2553,9 @@
         <v>100</v>
       </c>
       <c r="F29" s="14"/>
+      <c r="G29" s="15">
+        <v>110301</v>
+      </c>
       <c r="H29" s="32" t="s">
         <v>149</v>
       </c>
@@ -2535,6 +2577,9 @@
         <v>100</v>
       </c>
       <c r="F30" s="14"/>
+      <c r="G30" s="15">
+        <v>110301</v>
+      </c>
       <c r="H30" s="32" t="s">
         <v>150</v>
       </c>
@@ -2559,6 +2604,9 @@
         <v>100</v>
       </c>
       <c r="F31" s="14"/>
+      <c r="G31" s="15">
+        <v>110301</v>
+      </c>
       <c r="H31" s="32" t="s">
         <v>150</v>
       </c>
@@ -2583,6 +2631,9 @@
         <v>100</v>
       </c>
       <c r="F32" s="14"/>
+      <c r="G32" s="15">
+        <v>110301</v>
+      </c>
       <c r="H32" s="32" t="s">
         <v>150</v>
       </c>
@@ -2607,6 +2658,9 @@
         <v>100</v>
       </c>
       <c r="F33" s="21"/>
+      <c r="G33" s="15">
+        <v>110301</v>
+      </c>
       <c r="H33" s="32" t="s">
         <v>154</v>
       </c>
@@ -2670,7 +2724,12 @@
       <c r="E36" s="13">
         <v>100</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="15">
+        <v>110301</v>
+      </c>
       <c r="H36" s="32" t="s">
         <v>136</v>
       </c>
@@ -2712,6 +2771,9 @@
         <v>100</v>
       </c>
       <c r="F38" s="13"/>
+      <c r="G38" s="15">
+        <v>110301</v>
+      </c>
       <c r="H38" s="32" t="s">
         <v>156</v>
       </c>
@@ -2733,6 +2795,9 @@
         <v>100</v>
       </c>
       <c r="F39" s="13"/>
+      <c r="G39" s="15">
+        <v>110301</v>
+      </c>
       <c r="H39" t="s">
         <v>157</v>
       </c>
@@ -2756,6 +2821,9 @@
       <c r="F40" s="33" t="s">
         <v>171</v>
       </c>
+      <c r="G40" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="15">
@@ -2776,6 +2844,9 @@
       <c r="F41" s="33" t="s">
         <v>171</v>
       </c>
+      <c r="G41" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15">
@@ -2914,6 +2985,9 @@
       <c r="E47" s="21">
         <v>100</v>
       </c>
+      <c r="G47" s="15">
+        <v>110301</v>
+      </c>
       <c r="H47" s="32" t="s">
         <v>120</v>
       </c>
@@ -2940,6 +3014,9 @@
       <c r="F48" s="33" t="s">
         <v>171</v>
       </c>
+      <c r="G48" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="15">
@@ -2983,6 +3060,9 @@
       <c r="F50" s="33" t="s">
         <v>172</v>
       </c>
+      <c r="G50" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="15">
@@ -3000,6 +3080,9 @@
       <c r="E51" s="21">
         <v>100</v>
       </c>
+      <c r="G51" s="15">
+        <v>110301</v>
+      </c>
       <c r="H51" s="32" t="s">
         <v>163</v>
       </c>
@@ -3066,6 +3149,9 @@
       <c r="F54" s="33" t="s">
         <v>172</v>
       </c>
+      <c r="G54" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="15">
@@ -3083,6 +3169,9 @@
       <c r="E55" s="26">
         <v>100</v>
       </c>
+      <c r="G55" s="15">
+        <v>110301</v>
+      </c>
       <c r="H55" t="s">
         <v>165</v>
       </c>
@@ -3103,6 +3192,9 @@
       <c r="E56" s="26">
         <v>100</v>
       </c>
+      <c r="G56" s="15">
+        <v>110301</v>
+      </c>
       <c r="H56" s="32" t="s">
         <v>167</v>
       </c>
@@ -3126,6 +3218,9 @@
       <c r="E57" s="26">
         <v>100</v>
       </c>
+      <c r="G57" s="15">
+        <v>110301</v>
+      </c>
       <c r="H57" s="32" t="s">
         <v>167</v>
       </c>
@@ -3152,6 +3247,9 @@
       <c r="F58" s="33" t="s">
         <v>172</v>
       </c>
+      <c r="G58" s="15">
+        <v>110301</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="15">
@@ -3169,6 +3267,9 @@
       <c r="E59" s="13">
         <v>100</v>
       </c>
+      <c r="G59" s="15">
+        <v>110301</v>
+      </c>
       <c r="H59" s="32" t="s">
         <v>170</v>
       </c>
@@ -3189,6 +3290,9 @@
       <c r="E60" s="13">
         <v>100</v>
       </c>
+      <c r="G60" s="15">
+        <v>110301</v>
+      </c>
       <c r="H60" s="32" t="s">
         <v>167</v>
       </c>
@@ -3211,6 +3315,9 @@
       </c>
       <c r="E61" s="13">
         <v>100</v>
+      </c>
+      <c r="G61" s="15">
+        <v>110301</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>167</v>

--- a/server/FSApp/doc/功能开放/openLevelLimit.xlsx
+++ b/server/FSApp/doc/功能开放/openLevelLimit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="173">
   <si>
     <t>key</t>
   </si>
@@ -829,7 +829,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +894,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1013,7 +1019,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1069,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,9 +1442,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,8 +1472,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="117">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1500,6 +1530,10 @@
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
@@ -1546,6 +1580,10 @@
     <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="9" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1835,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F57" sqref="F56:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1903,7 +1941,7 @@
       <c r="G2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -1972,7 +2010,7 @@
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13">
@@ -1995,7 +2033,7 @@
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="13">
@@ -2015,7 +2053,7 @@
       <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="13">
@@ -2038,7 +2076,7 @@
       <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="13">
@@ -2111,7 +2149,7 @@
       <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>21</v>
       </c>
       <c r="E11" s="13">
@@ -2151,7 +2189,7 @@
       <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2175,10 +2213,10 @@
       <c r="G13" s="14">
         <v>110305</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2238,14 +2276,16 @@
       <c r="E16" s="13">
         <v>100</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="G16" s="15">
         <v>110301</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2268,8 +2308,8 @@
       <c r="F17" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
@@ -2291,10 +2331,10 @@
       <c r="G18" s="15">
         <v>110301</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2308,20 +2348,22 @@
       <c r="C19" s="13">
         <v>15</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>16</v>
       </c>
       <c r="E19" s="13">
         <v>100</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="G19" s="14">
         <v>110303</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2335,7 +2377,7 @@
       <c r="C20" s="13">
         <v>17</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>19</v>
       </c>
       <c r="E20" s="13">
@@ -2353,7 +2395,7 @@
       <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="13">
@@ -2373,7 +2415,7 @@
       <c r="A22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="13">
@@ -2399,7 +2441,7 @@
       <c r="C23" s="13">
         <v>20</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>16</v>
       </c>
       <c r="E23" s="13">
@@ -2409,7 +2451,7 @@
       <c r="G23" s="14">
         <v>110302</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2423,7 +2465,7 @@
       <c r="C24" s="13">
         <v>21</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>14</v>
       </c>
       <c r="E24" s="13">
@@ -2453,11 +2495,13 @@
       <c r="E25" s="13">
         <v>100</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="G25" s="15">
         <v>110301</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2471,7 +2515,7 @@
       <c r="C26" s="13">
         <v>23</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>23</v>
       </c>
       <c r="E26" s="13">
@@ -2481,7 +2525,7 @@
       <c r="G26" s="14">
         <v>110306</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2505,10 +2549,10 @@
       <c r="G27" s="15">
         <v>110301</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2522,7 +2566,7 @@
       <c r="C28" s="13">
         <v>25</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>45</v>
       </c>
       <c r="E28" s="13">
@@ -2537,7 +2581,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -2552,11 +2596,13 @@
       <c r="E29" s="13">
         <v>100</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="G29" s="15">
         <v>110301</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2580,15 +2626,15 @@
       <c r="G30" s="15">
         <v>110301</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -2607,7 +2653,7 @@
       <c r="G31" s="15">
         <v>110301</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>150</v>
       </c>
       <c r="I31" t="s">
@@ -2634,7 +2680,7 @@
       <c r="G32" s="15">
         <v>110301</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>150</v>
       </c>
       <c r="I32" t="s">
@@ -2657,14 +2703,16 @@
       <c r="E33" s="13">
         <v>100</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="G33" s="15">
         <v>110301</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="31" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2672,7 +2720,7 @@
       <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="13">
@@ -2692,7 +2740,7 @@
       <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="13">
@@ -2724,13 +2772,13 @@
       <c r="E36" s="13">
         <v>100</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G36" s="15">
         <v>110301</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2738,7 +2786,7 @@
       <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="13">
@@ -2774,7 +2822,7 @@
       <c r="G38" s="15">
         <v>110301</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="31" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2818,7 +2866,7 @@
       <c r="E40" s="13">
         <v>100</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G40" s="15">
@@ -2841,7 +2889,7 @@
       <c r="E41" s="13">
         <v>100</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G41" s="15">
@@ -2858,13 +2906,15 @@
       <c r="C42" s="13">
         <v>38</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="27">
         <v>5</v>
       </c>
       <c r="E42" s="13">
         <v>100</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="G42" s="14">
         <v>110101</v>
       </c>
@@ -2913,6 +2963,9 @@
         <v>100</v>
       </c>
       <c r="F44" s="21"/>
+      <c r="G44" s="15">
+        <v>110301</v>
+      </c>
       <c r="H44" t="s">
         <v>158</v>
       </c>
@@ -2927,7 +2980,7 @@
       <c r="C45" s="15">
         <v>42</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="27">
         <v>7</v>
       </c>
       <c r="E45" s="21">
@@ -2936,10 +2989,10 @@
       <c r="G45" s="14">
         <v>110102</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2953,19 +3006,22 @@
       <c r="C46" s="13">
         <v>43</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>11</v>
       </c>
       <c r="E46" s="21">
         <v>100</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="G46" s="15">
         <v>110202</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2988,10 +3044,10 @@
       <c r="G47" s="15">
         <v>110301</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="31" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3011,7 +3067,7 @@
       <c r="E48" s="21">
         <v>100</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G48" s="15">
@@ -3028,13 +3084,13 @@
       <c r="C49" s="15">
         <v>46</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <v>15</v>
       </c>
       <c r="E49" s="21">
         <v>100</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G49" s="15">
@@ -3057,7 +3113,7 @@
       <c r="E50" s="21">
         <v>100</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="32" t="s">
         <v>172</v>
       </c>
       <c r="G50" s="15">
@@ -3083,7 +3139,7 @@
       <c r="G51" s="15">
         <v>110301</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="31" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3091,7 +3147,7 @@
       <c r="A52" s="15">
         <v>49</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="13">
@@ -3100,7 +3156,7 @@
       <c r="D52" s="15">
         <v>0</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <v>100</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -3117,13 +3173,13 @@
       <c r="C53" s="13">
         <v>50</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="27">
         <v>8</v>
       </c>
-      <c r="E53" s="26">
-        <v>100</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="25">
+        <v>100</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>171</v>
       </c>
       <c r="G53" s="15">
@@ -3143,10 +3199,10 @@
       <c r="D54" s="15">
         <v>45</v>
       </c>
-      <c r="E54" s="26">
-        <v>100</v>
-      </c>
-      <c r="F54" s="33" t="s">
+      <c r="E54" s="25">
+        <v>100</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>172</v>
       </c>
       <c r="G54" s="15">
@@ -3166,7 +3222,7 @@
       <c r="D55" s="15">
         <v>37</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="25">
         <v>100</v>
       </c>
       <c r="G55" s="15">
@@ -3189,16 +3245,19 @@
       <c r="D56" s="15">
         <v>28</v>
       </c>
-      <c r="E56" s="26">
-        <v>100</v>
+      <c r="E56" s="25">
+        <v>100</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="G56" s="15">
         <v>110301</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="31" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3215,16 +3274,19 @@
       <c r="D57" s="15">
         <v>35</v>
       </c>
-      <c r="E57" s="26">
-        <v>100</v>
+      <c r="E57" s="25">
+        <v>100</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="G57" s="15">
         <v>110301</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="32" t="s">
+      <c r="I57" s="31" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3244,7 +3306,7 @@
       <c r="E58" s="13">
         <v>100</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="32" t="s">
         <v>172</v>
       </c>
       <c r="G58" s="15">
@@ -3270,7 +3332,7 @@
       <c r="G59" s="15">
         <v>110301</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="31" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3284,19 +3346,22 @@
       <c r="C60" s="15">
         <v>57</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="26">
         <v>28</v>
       </c>
       <c r="E60" s="13">
         <v>100</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="G60" s="15">
         <v>110301</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I60" s="32" t="s">
+      <c r="I60" s="31" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3310,19 +3375,22 @@
       <c r="C61" s="13">
         <v>58</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="26">
         <v>36</v>
       </c>
       <c r="E61" s="13">
         <v>100</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="G61" s="15">
         <v>110301</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="31" t="s">
         <v>169</v>
       </c>
     </row>

--- a/server/FSApp/doc/功能开放/openLevelLimit.xlsx
+++ b/server/FSApp/doc/功能开放/openLevelLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="0" windowWidth="24360" windowHeight="16800"/>
+    <workbookView xWindow="260" yWindow="180" windowWidth="26220" windowHeight="18580"/>
   </bookViews>
   <sheets>
     <sheet name="openLevelLimit" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>副本扫荡开放</t>
-  </si>
-  <si>
     <t>使用经验丹</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -400,14 +397,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>战斗加速 X2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗加速 X3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1阶道术</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -436,13 +425,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>通用神器1开放等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用神器2开放等级</t>
-  </si>
-  <si>
     <t>开放关卡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -640,6 +622,26 @@
   </si>
   <si>
     <t>客户端控制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用神器1开放等级(提示信息在ChinesesString.csv)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用神器2开放等级(提示信息在ChinesesString.csv)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本扫荡开放(扫荡10次先判断vip，再显示提示信息)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗加速 X2(提示信息在ChinesesString.csv)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗加速 X3(提示信息在ChinesesString.csv)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -827,6 +829,12 @@
     <font>
       <sz val="12"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1019,7 +1027,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,8 +1379,98 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1475,8 +1573,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="147">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1534,6 +1635,21 @@
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
@@ -1584,6 +1700,21 @@
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="9" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1863,7 +1994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1873,14 +2004,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F57" sqref="F56:F57"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.6640625" style="13" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="7.83203125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10" style="13" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1910,13 +2041,13 @@
         <v>84</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1939,13 +2070,13 @@
         <v>85</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1968,13 +2099,13 @@
         <v>86</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1997,13 +2128,13 @@
         <v>87</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2023,10 +2154,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2046,7 +2177,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2054,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="13">
         <v>3</v>
@@ -2066,10 +2197,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2077,7 +2208,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="13">
         <v>4</v>
@@ -2089,10 +2220,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2116,7 +2247,7 @@
         <v>110301</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2136,7 +2267,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2160,10 +2291,10 @@
         <v>110305</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2187,10 +2318,10 @@
         <v>110305</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2214,10 +2345,10 @@
         <v>110305</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2237,7 +2368,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2257,7 +2388,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2277,16 +2408,16 @@
         <v>100</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G16" s="15">
         <v>110301</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2306,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -2316,7 +2447,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="13">
         <v>14</v>
@@ -2332,10 +2463,10 @@
         <v>110301</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2355,16 +2486,16 @@
         <v>100</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G19" s="14">
         <v>110303</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2388,7 +2519,7 @@
         <v>110304</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2408,7 +2539,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2428,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2452,7 +2583,7 @@
         <v>110302</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2476,7 +2607,7 @@
         <v>110203</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2496,13 +2627,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G25" s="15">
         <v>110301</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2510,7 +2641,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="13">
         <v>23</v>
@@ -2526,7 +2657,7 @@
         <v>110306</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2550,10 +2681,10 @@
         <v>110301</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2577,7 +2708,7 @@
         <v>110401</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2597,13 +2728,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" s="15">
         <v>110301</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2627,10 +2758,10 @@
         <v>110301</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2654,10 +2785,10 @@
         <v>110301</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2681,10 +2812,10 @@
         <v>110301</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2704,16 +2835,16 @@
         <v>100</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G33" s="15">
         <v>110301</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2733,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2741,7 +2872,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="13">
         <v>32</v>
@@ -2753,7 +2884,7 @@
         <v>100</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2761,7 +2892,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13">
         <v>33</v>
@@ -2773,13 +2904,13 @@
         <v>100</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G36" s="15">
         <v>110301</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2799,7 +2930,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2807,7 +2938,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="13">
         <v>35</v>
@@ -2823,7 +2954,7 @@
         <v>110301</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2847,7 +2978,7 @@
         <v>110301</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2867,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G40" s="15">
         <v>110301</v>
@@ -2890,7 +3021,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G41" s="15">
         <v>110301</v>
@@ -2913,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G42" s="14">
         <v>110101</v>
@@ -2940,10 +3071,10 @@
         <v>110305</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
@@ -2967,7 +3098,7 @@
         <v>110301</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2990,18 +3121,18 @@
         <v>110102</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="15">
         <v>43</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>89</v>
+      <c r="B46" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="C46" s="13">
         <v>43</v>
@@ -3013,16 +3144,16 @@
         <v>100</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G46" s="15">
         <v>110202</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3030,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="15">
         <v>44</v>
@@ -3045,10 +3176,10 @@
         <v>110301</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3056,7 +3187,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="13">
         <v>45</v>
@@ -3068,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G48" s="15">
         <v>110301</v>
@@ -3079,7 +3210,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="15">
         <v>46</v>
@@ -3091,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G49" s="15">
         <v>110301</v>
@@ -3102,7 +3233,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="15">
         <v>47</v>
@@ -3114,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G50" s="15">
         <v>110301</v>
@@ -3125,7 +3256,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="15">
         <v>48</v>
@@ -3140,7 +3271,7 @@
         <v>110301</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3148,7 +3279,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="13">
         <v>49</v>
@@ -3160,15 +3291,15 @@
         <v>100</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="15">
         <v>50</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>101</v>
+      <c r="B53" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="C53" s="13">
         <v>50</v>
@@ -3180,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G53" s="15">
         <v>110201</v>
@@ -3190,8 +3321,8 @@
       <c r="A54" s="15">
         <v>51</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>102</v>
+      <c r="B54" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="C54" s="13">
         <v>51</v>
@@ -3203,7 +3334,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G54" s="15">
         <v>110301</v>
@@ -3214,7 +3345,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C55" s="13">
         <v>52</v>
@@ -3229,7 +3360,7 @@
         <v>110301</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3237,7 +3368,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="13">
         <v>53</v>
@@ -3249,16 +3380,16 @@
         <v>100</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G56" s="15">
         <v>110301</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3266,7 +3397,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C57" s="13">
         <v>54</v>
@@ -3278,16 +3409,16 @@
         <v>100</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G57" s="15">
         <v>110301</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3295,7 +3426,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" s="15">
         <v>55</v>
@@ -3307,7 +3438,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G58" s="15">
         <v>110301</v>
@@ -3318,7 +3449,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" s="13">
         <v>56</v>
@@ -3333,15 +3464,15 @@
         <v>110301</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="15">
         <v>57</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>110</v>
+      <c r="B60" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="C60" s="15">
         <v>57</v>
@@ -3353,24 +3484,24 @@
         <v>100</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G60" s="15">
         <v>110301</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="15">
         <v>58</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>111</v>
+      <c r="B61" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="C61" s="13">
         <v>58</v>
@@ -3382,16 +3513,16 @@
         <v>100</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G61" s="15">
         <v>110301</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
